--- a/12. Lap. Perkara Desember 2022.xlsx
+++ b/12. Lap. Perkara Desember 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\laragon\www\e-laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE9A9A-0848-45CA-9541-647B4A8F9D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789B6AE-5DF0-40B4-865C-7D67B57B900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="511" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="511" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIPA 1" sheetId="121" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="908">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -5368,6 +5368,27 @@
     <xf numFmtId="14" fontId="67" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5380,9 +5401,6 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5397,24 +5415,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5535,15 +5535,45 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="35" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5574,36 +5604,20 @@
     <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5625,20 +5639,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5657,6 +5657,42 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5666,15 +5702,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5682,33 +5709,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6411,22 +6411,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:73" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="650" t="s">
+      <c r="B1" s="657" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="650"/>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
-      <c r="N1" s="650"/>
-      <c r="O1" s="650"/>
+      <c r="C1" s="657"/>
+      <c r="D1" s="657"/>
+      <c r="E1" s="657"/>
+      <c r="F1" s="657"/>
+      <c r="G1" s="657"/>
+      <c r="H1" s="657"/>
+      <c r="I1" s="657"/>
+      <c r="J1" s="657"/>
+      <c r="K1" s="657"/>
+      <c r="L1" s="657"/>
+      <c r="M1" s="657"/>
+      <c r="N1" s="657"/>
+      <c r="O1" s="657"/>
       <c r="P1" s="239"/>
       <c r="Q1" s="239"/>
       <c r="R1" s="239"/>
@@ -6487,22 +6487,22 @@
       <c r="BU1" s="239"/>
     </row>
     <row r="2" spans="2:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="651" t="s">
+      <c r="B2" s="658" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="651"/>
-      <c r="D2" s="651"/>
-      <c r="E2" s="651"/>
-      <c r="F2" s="651"/>
-      <c r="G2" s="651"/>
-      <c r="H2" s="651"/>
-      <c r="I2" s="651"/>
-      <c r="J2" s="651"/>
-      <c r="K2" s="651"/>
-      <c r="L2" s="651"/>
-      <c r="M2" s="651"/>
-      <c r="N2" s="651"/>
-      <c r="O2" s="651"/>
+      <c r="C2" s="658"/>
+      <c r="D2" s="658"/>
+      <c r="E2" s="658"/>
+      <c r="F2" s="658"/>
+      <c r="G2" s="658"/>
+      <c r="H2" s="658"/>
+      <c r="I2" s="658"/>
+      <c r="J2" s="658"/>
+      <c r="K2" s="658"/>
+      <c r="L2" s="658"/>
+      <c r="M2" s="658"/>
+      <c r="N2" s="658"/>
+      <c r="O2" s="658"/>
       <c r="P2" s="239"/>
       <c r="Q2" s="239"/>
       <c r="R2" s="239"/>
@@ -6563,22 +6563,22 @@
       <c r="BU2" s="239"/>
     </row>
     <row r="3" spans="2:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="651" t="s">
+      <c r="B3" s="658" t="s">
         <v>628</v>
       </c>
-      <c r="C3" s="651"/>
-      <c r="D3" s="651"/>
-      <c r="E3" s="651"/>
-      <c r="F3" s="651"/>
-      <c r="G3" s="651"/>
-      <c r="H3" s="651"/>
-      <c r="I3" s="651"/>
-      <c r="J3" s="651"/>
-      <c r="K3" s="651"/>
-      <c r="L3" s="651"/>
-      <c r="M3" s="651"/>
-      <c r="N3" s="651"/>
-      <c r="O3" s="651"/>
+      <c r="C3" s="658"/>
+      <c r="D3" s="658"/>
+      <c r="E3" s="658"/>
+      <c r="F3" s="658"/>
+      <c r="G3" s="658"/>
+      <c r="H3" s="658"/>
+      <c r="I3" s="658"/>
+      <c r="J3" s="658"/>
+      <c r="K3" s="658"/>
+      <c r="L3" s="658"/>
+      <c r="M3" s="658"/>
+      <c r="N3" s="658"/>
+      <c r="O3" s="658"/>
       <c r="P3" s="239"/>
       <c r="Q3" s="239"/>
       <c r="R3" s="239"/>
@@ -6648,11 +6648,11 @@
       <c r="H4" s="241"/>
       <c r="I4" s="241"/>
       <c r="J4" s="241"/>
-      <c r="K4" s="651"/>
-      <c r="L4" s="651"/>
-      <c r="M4" s="651"/>
-      <c r="N4" s="651"/>
-      <c r="O4" s="651"/>
+      <c r="K4" s="658"/>
+      <c r="L4" s="658"/>
+      <c r="M4" s="658"/>
+      <c r="N4" s="658"/>
+      <c r="O4" s="658"/>
       <c r="P4" s="239"/>
       <c r="Q4" s="239"/>
       <c r="R4" s="239"/>
@@ -6791,7 +6791,7 @@
       <c r="BU5" s="239"/>
     </row>
     <row r="6" spans="2:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="652" t="s">
+      <c r="B6" s="648" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="244"/>
@@ -6802,19 +6802,19 @@
         <v>182</v>
       </c>
       <c r="F6" s="246"/>
-      <c r="G6" s="653" t="s">
+      <c r="G6" s="659" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="654"/>
-      <c r="I6" s="654"/>
-      <c r="J6" s="654"/>
-      <c r="K6" s="655"/>
-      <c r="L6" s="648" t="s">
+      <c r="H6" s="660"/>
+      <c r="I6" s="660"/>
+      <c r="J6" s="660"/>
+      <c r="K6" s="661"/>
+      <c r="L6" s="655" t="s">
         <v>186</v>
       </c>
-      <c r="M6" s="653"/>
-      <c r="N6" s="657"/>
-      <c r="O6" s="658"/>
+      <c r="M6" s="659"/>
+      <c r="N6" s="663"/>
+      <c r="O6" s="664"/>
       <c r="P6" s="239"/>
       <c r="Q6" s="239"/>
       <c r="R6" s="239"/>
@@ -6875,7 +6875,7 @@
       <c r="BU6" s="239"/>
     </row>
     <row r="7" spans="2:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="652"/>
+      <c r="B7" s="648"/>
       <c r="C7" s="247" t="s">
         <v>181</v>
       </c>
@@ -6886,29 +6886,29 @@
       <c r="F7" s="247" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="648" t="s">
+      <c r="G7" s="655" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="648" t="s">
+      <c r="H7" s="655" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="648" t="s">
+      <c r="I7" s="655" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="648" t="s">
+      <c r="J7" s="655" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="648" t="s">
+      <c r="K7" s="655" t="s">
         <v>139</v>
       </c>
-      <c r="L7" s="656"/>
+      <c r="L7" s="662"/>
       <c r="M7" s="244" t="s">
         <v>188</v>
       </c>
       <c r="N7" s="373" t="s">
         <v>190</v>
       </c>
-      <c r="O7" s="648" t="s">
+      <c r="O7" s="655" t="s">
         <v>141</v>
       </c>
       <c r="P7" s="239"/>
@@ -6971,7 +6971,7 @@
       <c r="BU7" s="239"/>
     </row>
     <row r="8" spans="2:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="652"/>
+      <c r="B8" s="648"/>
       <c r="C8" s="248"/>
       <c r="D8" s="248" t="s">
         <v>79</v>
@@ -6980,11 +6980,11 @@
         <v>184</v>
       </c>
       <c r="F8" s="248"/>
-      <c r="G8" s="649"/>
-      <c r="H8" s="649"/>
-      <c r="I8" s="649"/>
-      <c r="J8" s="649"/>
-      <c r="K8" s="649"/>
+      <c r="G8" s="656"/>
+      <c r="H8" s="656"/>
+      <c r="I8" s="656"/>
+      <c r="J8" s="656"/>
+      <c r="K8" s="656"/>
       <c r="L8" s="374" t="s">
         <v>187</v>
       </c>
@@ -6994,7 +6994,7 @@
       <c r="N8" s="374" t="s">
         <v>139</v>
       </c>
-      <c r="O8" s="649"/>
+      <c r="O8" s="656"/>
       <c r="P8" s="239"/>
       <c r="Q8" s="239"/>
       <c r="R8" s="239"/>
@@ -15712,7 +15712,7 @@
       <c r="O403" s="413"/>
     </row>
     <row r="404" spans="1:19" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B404" s="652" t="s">
+      <c r="B404" s="648" t="s">
         <v>80</v>
       </c>
       <c r="C404" s="244"/>
@@ -15723,22 +15723,22 @@
         <v>182</v>
       </c>
       <c r="F404" s="246"/>
-      <c r="G404" s="659" t="s">
+      <c r="G404" s="649" t="s">
         <v>65</v>
       </c>
-      <c r="H404" s="660"/>
-      <c r="I404" s="660"/>
-      <c r="J404" s="660"/>
-      <c r="K404" s="661"/>
-      <c r="L404" s="662" t="s">
+      <c r="H404" s="650"/>
+      <c r="I404" s="650"/>
+      <c r="J404" s="650"/>
+      <c r="K404" s="651"/>
+      <c r="L404" s="652" t="s">
         <v>186</v>
       </c>
-      <c r="M404" s="659"/>
-      <c r="N404" s="660"/>
-      <c r="O404" s="661"/>
+      <c r="M404" s="649"/>
+      <c r="N404" s="650"/>
+      <c r="O404" s="651"/>
     </row>
     <row r="405" spans="1:19" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B405" s="652"/>
+      <c r="B405" s="648"/>
       <c r="C405" s="247" t="s">
         <v>181</v>
       </c>
@@ -15749,34 +15749,34 @@
       <c r="F405" s="247" t="s">
         <v>180</v>
       </c>
-      <c r="G405" s="662" t="s">
+      <c r="G405" s="652" t="s">
         <v>179</v>
       </c>
-      <c r="H405" s="662" t="s">
+      <c r="H405" s="652" t="s">
         <v>1</v>
       </c>
-      <c r="I405" s="662" t="s">
+      <c r="I405" s="652" t="s">
         <v>177</v>
       </c>
-      <c r="J405" s="662" t="s">
+      <c r="J405" s="652" t="s">
         <v>178</v>
       </c>
-      <c r="K405" s="662" t="s">
+      <c r="K405" s="652" t="s">
         <v>139</v>
       </c>
-      <c r="L405" s="663"/>
+      <c r="L405" s="653"/>
       <c r="M405" s="477" t="s">
         <v>188</v>
       </c>
       <c r="N405" s="478" t="s">
         <v>190</v>
       </c>
-      <c r="O405" s="662" t="s">
+      <c r="O405" s="652" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="406" spans="1:19" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B406" s="652"/>
+      <c r="B406" s="648"/>
       <c r="C406" s="248"/>
       <c r="D406" s="249" t="s">
         <v>79</v>
@@ -15785,11 +15785,11 @@
         <v>184</v>
       </c>
       <c r="F406" s="248"/>
-      <c r="G406" s="664"/>
-      <c r="H406" s="664"/>
-      <c r="I406" s="664"/>
-      <c r="J406" s="664"/>
-      <c r="K406" s="664"/>
+      <c r="G406" s="654"/>
+      <c r="H406" s="654"/>
+      <c r="I406" s="654"/>
+      <c r="J406" s="654"/>
+      <c r="K406" s="654"/>
       <c r="L406" s="479" t="s">
         <v>187</v>
       </c>
@@ -15799,7 +15799,7 @@
       <c r="N406" s="479" t="s">
         <v>139</v>
       </c>
-      <c r="O406" s="664"/>
+      <c r="O406" s="654"/>
     </row>
     <row r="407" spans="1:19" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="575">
@@ -20056,16 +20056,6 @@
     <row r="2370" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B404:B406"/>
-    <mergeCell ref="G404:K404"/>
-    <mergeCell ref="L404:L405"/>
-    <mergeCell ref="M404:O404"/>
-    <mergeCell ref="G405:G406"/>
-    <mergeCell ref="H405:H406"/>
-    <mergeCell ref="I405:I406"/>
-    <mergeCell ref="J405:J406"/>
-    <mergeCell ref="K405:K406"/>
-    <mergeCell ref="O405:O406"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
@@ -20080,6 +20070,16 @@
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B404:B406"/>
+    <mergeCell ref="G404:K404"/>
+    <mergeCell ref="L404:L405"/>
+    <mergeCell ref="M404:O404"/>
+    <mergeCell ref="G405:G406"/>
+    <mergeCell ref="H405:H406"/>
+    <mergeCell ref="I405:I406"/>
+    <mergeCell ref="J405:J406"/>
+    <mergeCell ref="K405:K406"/>
+    <mergeCell ref="O405:O406"/>
   </mergeCells>
   <pageMargins left="1.56" right="0.51181102362204722" top="0.31496062992125984" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="71" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -20183,16 +20183,16 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="728" t="s">
+      <c r="B6" s="734" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="734" t="s">
+      <c r="C6" s="740" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="730" t="s">
+      <c r="D6" s="736" t="s">
         <v>295</v>
       </c>
-      <c r="E6" s="731"/>
+      <c r="E6" s="737"/>
       <c r="F6" s="196" t="s">
         <v>7</v>
       </c>
@@ -20210,10 +20210,10 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="729"/>
-      <c r="C7" s="734"/>
-      <c r="D7" s="732"/>
-      <c r="E7" s="733"/>
+      <c r="B7" s="735"/>
+      <c r="C7" s="740"/>
+      <c r="D7" s="738"/>
+      <c r="E7" s="739"/>
       <c r="F7" s="198" t="s">
         <v>144</v>
       </c>
@@ -20233,10 +20233,10 @@
       <c r="C8" s="223">
         <v>2</v>
       </c>
-      <c r="D8" s="735">
+      <c r="D8" s="728">
         <v>3</v>
       </c>
-      <c r="E8" s="735"/>
+      <c r="E8" s="728"/>
       <c r="F8" s="223">
         <v>4</v>
       </c>
@@ -20256,8 +20256,8 @@
     <row r="9" spans="2:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="98"/>
-      <c r="D9" s="736"/>
-      <c r="E9" s="737"/>
+      <c r="D9" s="729"/>
+      <c r="E9" s="730"/>
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
       <c r="H9" s="100"/>
@@ -20267,8 +20267,8 @@
     <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="82"/>
-      <c r="D10" s="738"/>
-      <c r="E10" s="738"/>
+      <c r="D10" s="731"/>
+      <c r="E10" s="731"/>
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
       <c r="H10" s="82"/>
@@ -20278,8 +20278,8 @@
     <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="739"/>
-      <c r="E11" s="739"/>
+      <c r="D11" s="732"/>
+      <c r="E11" s="732"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="82"/>
@@ -20289,8 +20289,8 @@
     <row r="12" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="101"/>
       <c r="C12" s="102"/>
-      <c r="D12" s="740"/>
-      <c r="E12" s="740"/>
+      <c r="D12" s="733"/>
+      <c r="E12" s="733"/>
       <c r="F12" s="102"/>
       <c r="G12" s="102"/>
       <c r="H12" s="103"/>
@@ -20402,17 +20402,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:E7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="1.95" right="0.52" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="95" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -22726,13 +22726,13 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="762" t="s">
+      <c r="B7" s="747" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="762" t="s">
+      <c r="C7" s="747" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="762" t="s">
+      <c r="D7" s="747" t="s">
         <v>310</v>
       </c>
       <c r="E7" s="207" t="s">
@@ -22741,16 +22741,16 @@
       <c r="F7" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="762" t="s">
+      <c r="G7" s="747" t="s">
         <v>296</v>
       </c>
-      <c r="H7" s="762" t="s">
+      <c r="H7" s="747" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="762" t="s">
+      <c r="I7" s="747" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="762" t="s">
+      <c r="J7" s="747" t="s">
         <v>91</v>
       </c>
       <c r="K7" s="742" t="s">
@@ -22758,20 +22758,20 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="763"/>
-      <c r="C8" s="763"/>
-      <c r="D8" s="763"/>
+      <c r="B8" s="748"/>
+      <c r="C8" s="748"/>
+      <c r="D8" s="748"/>
       <c r="E8" s="208" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="763"/>
-      <c r="H8" s="763"/>
-      <c r="I8" s="763"/>
-      <c r="J8" s="763"/>
-      <c r="K8" s="764"/>
+      <c r="G8" s="748"/>
+      <c r="H8" s="748"/>
+      <c r="I8" s="748"/>
+      <c r="J8" s="748"/>
+      <c r="K8" s="749"/>
     </row>
     <row r="9" spans="2:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="219">
@@ -22806,75 +22806,75 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="756" t="s">
+      <c r="B10" s="750" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="750">
+      <c r="C10" s="753">
         <v>74240000</v>
       </c>
-      <c r="D10" s="750">
-        <v>0</v>
-      </c>
-      <c r="E10" s="750">
+      <c r="D10" s="753">
+        <v>0</v>
+      </c>
+      <c r="E10" s="753">
         <f>9680000+9680000+8400000+30640000+6680000</f>
         <v>65080000</v>
       </c>
-      <c r="F10" s="759">
+      <c r="F10" s="756">
         <v>9160000</v>
       </c>
-      <c r="G10" s="750">
+      <c r="G10" s="753">
         <f>SUM(E10:F13)</f>
         <v>74240000</v>
       </c>
-      <c r="H10" s="750">
+      <c r="H10" s="753">
         <f>C10-G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="753">
+      <c r="I10" s="762">
         <v>1</v>
       </c>
-      <c r="J10" s="753">
+      <c r="J10" s="762">
         <v>5</v>
       </c>
-      <c r="K10" s="747" t="s">
+      <c r="K10" s="759" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="757"/>
-      <c r="C11" s="751"/>
-      <c r="D11" s="751"/>
-      <c r="E11" s="751"/>
-      <c r="F11" s="760"/>
-      <c r="G11" s="751"/>
-      <c r="H11" s="751"/>
-      <c r="I11" s="754"/>
-      <c r="J11" s="754"/>
-      <c r="K11" s="748"/>
+      <c r="B11" s="751"/>
+      <c r="C11" s="754"/>
+      <c r="D11" s="754"/>
+      <c r="E11" s="754"/>
+      <c r="F11" s="757"/>
+      <c r="G11" s="754"/>
+      <c r="H11" s="754"/>
+      <c r="I11" s="763"/>
+      <c r="J11" s="763"/>
+      <c r="K11" s="760"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="757"/>
-      <c r="C12" s="751"/>
-      <c r="D12" s="751"/>
-      <c r="E12" s="751"/>
-      <c r="F12" s="760"/>
-      <c r="G12" s="751"/>
-      <c r="H12" s="751"/>
-      <c r="I12" s="754"/>
-      <c r="J12" s="754"/>
-      <c r="K12" s="748"/>
+      <c r="B12" s="751"/>
+      <c r="C12" s="754"/>
+      <c r="D12" s="754"/>
+      <c r="E12" s="754"/>
+      <c r="F12" s="757"/>
+      <c r="G12" s="754"/>
+      <c r="H12" s="754"/>
+      <c r="I12" s="763"/>
+      <c r="J12" s="763"/>
+      <c r="K12" s="760"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="758"/>
-      <c r="C13" s="752"/>
-      <c r="D13" s="752"/>
-      <c r="E13" s="752"/>
-      <c r="F13" s="761"/>
-      <c r="G13" s="752"/>
-      <c r="H13" s="752"/>
-      <c r="I13" s="755"/>
-      <c r="J13" s="755"/>
-      <c r="K13" s="749"/>
+      <c r="B13" s="752"/>
+      <c r="C13" s="755"/>
+      <c r="D13" s="755"/>
+      <c r="E13" s="755"/>
+      <c r="F13" s="758"/>
+      <c r="G13" s="755"/>
+      <c r="H13" s="755"/>
+      <c r="I13" s="764"/>
+      <c r="J13" s="764"/>
+      <c r="K13" s="761"/>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
@@ -22991,6 +22991,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -23002,16 +23012,6 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="G10:G13"/>
   </mergeCells>
   <pageMargins left="2.09" right="0.13" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="95" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -23099,13 +23099,13 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="762" t="s">
+      <c r="B6" s="747" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="762" t="s">
+      <c r="C6" s="747" t="s">
         <v>309</v>
       </c>
-      <c r="D6" s="762" t="s">
+      <c r="D6" s="747" t="s">
         <v>310</v>
       </c>
       <c r="E6" s="207" t="s">
@@ -23114,16 +23114,16 @@
       <c r="F6" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="762" t="s">
+      <c r="G6" s="747" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="762" t="s">
+      <c r="H6" s="747" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="762" t="s">
+      <c r="I6" s="747" t="s">
         <v>314</v>
       </c>
-      <c r="J6" s="762" t="s">
+      <c r="J6" s="747" t="s">
         <v>91</v>
       </c>
       <c r="K6" s="742" t="s">
@@ -23131,20 +23131,20 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="763"/>
-      <c r="C7" s="763"/>
-      <c r="D7" s="763"/>
+      <c r="B7" s="748"/>
+      <c r="C7" s="748"/>
+      <c r="D7" s="748"/>
       <c r="E7" s="208" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="763"/>
-      <c r="H7" s="763"/>
-      <c r="I7" s="763"/>
-      <c r="J7" s="763"/>
-      <c r="K7" s="764"/>
+      <c r="G7" s="748"/>
+      <c r="H7" s="748"/>
+      <c r="I7" s="748"/>
+      <c r="J7" s="748"/>
+      <c r="K7" s="749"/>
     </row>
     <row r="8" spans="2:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="219">
@@ -23179,31 +23179,31 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="756" t="s">
+      <c r="B9" s="750" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="750">
+      <c r="C9" s="753">
         <v>7500000</v>
       </c>
-      <c r="D9" s="750">
-        <v>0</v>
-      </c>
-      <c r="E9" s="750">
+      <c r="D9" s="753">
+        <v>0</v>
+      </c>
+      <c r="E9" s="753">
         <f>4485000+150000+720000+1395000+300000</f>
         <v>7050000</v>
       </c>
-      <c r="F9" s="759">
+      <c r="F9" s="756">
         <v>450000</v>
       </c>
-      <c r="G9" s="750">
+      <c r="G9" s="753">
         <f>SUM(E9:F12)</f>
         <v>7500000</v>
       </c>
-      <c r="H9" s="750">
+      <c r="H9" s="753">
         <f>C9-G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="756">
+      <c r="I9" s="750">
         <v>15</v>
       </c>
       <c r="J9" s="765">
@@ -23212,38 +23212,38 @@
       <c r="K9" s="599"/>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="757"/>
-      <c r="C10" s="751"/>
-      <c r="D10" s="751"/>
-      <c r="E10" s="751"/>
-      <c r="F10" s="760"/>
-      <c r="G10" s="751"/>
-      <c r="H10" s="751"/>
-      <c r="I10" s="757"/>
+      <c r="B10" s="751"/>
+      <c r="C10" s="754"/>
+      <c r="D10" s="754"/>
+      <c r="E10" s="754"/>
+      <c r="F10" s="757"/>
+      <c r="G10" s="754"/>
+      <c r="H10" s="754"/>
+      <c r="I10" s="751"/>
       <c r="J10" s="766"/>
       <c r="K10" s="600"/>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="757"/>
-      <c r="C11" s="751"/>
-      <c r="D11" s="751"/>
-      <c r="E11" s="751"/>
-      <c r="F11" s="760"/>
-      <c r="G11" s="751"/>
-      <c r="H11" s="751"/>
-      <c r="I11" s="757"/>
+      <c r="B11" s="751"/>
+      <c r="C11" s="754"/>
+      <c r="D11" s="754"/>
+      <c r="E11" s="754"/>
+      <c r="F11" s="757"/>
+      <c r="G11" s="754"/>
+      <c r="H11" s="754"/>
+      <c r="I11" s="751"/>
       <c r="J11" s="766"/>
       <c r="K11" s="600"/>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="758"/>
-      <c r="C12" s="752"/>
-      <c r="D12" s="752"/>
-      <c r="E12" s="752"/>
-      <c r="F12" s="761"/>
-      <c r="G12" s="752"/>
-      <c r="H12" s="752"/>
-      <c r="I12" s="758"/>
+      <c r="B12" s="752"/>
+      <c r="C12" s="755"/>
+      <c r="D12" s="755"/>
+      <c r="E12" s="755"/>
+      <c r="F12" s="758"/>
+      <c r="G12" s="755"/>
+      <c r="H12" s="755"/>
+      <c r="I12" s="752"/>
       <c r="J12" s="767"/>
       <c r="K12" s="595"/>
     </row>
@@ -23359,6 +23359,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:J4"/>
@@ -23368,17 +23379,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="95" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -23469,13 +23469,13 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="762" t="s">
+      <c r="B6" s="747" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="762" t="s">
+      <c r="C6" s="747" t="s">
         <v>309</v>
       </c>
-      <c r="D6" s="762" t="s">
+      <c r="D6" s="747" t="s">
         <v>310</v>
       </c>
       <c r="E6" s="207" t="s">
@@ -23484,16 +23484,16 @@
       <c r="F6" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="762" t="s">
+      <c r="G6" s="747" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="762" t="s">
+      <c r="H6" s="747" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="762" t="s">
+      <c r="I6" s="747" t="s">
         <v>314</v>
       </c>
-      <c r="J6" s="762" t="s">
+      <c r="J6" s="747" t="s">
         <v>316</v>
       </c>
       <c r="K6" s="742" t="s">
@@ -23501,20 +23501,20 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="763"/>
-      <c r="C7" s="763"/>
-      <c r="D7" s="763"/>
+      <c r="B7" s="748"/>
+      <c r="C7" s="748"/>
+      <c r="D7" s="748"/>
       <c r="E7" s="208" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="763"/>
-      <c r="H7" s="763"/>
-      <c r="I7" s="763"/>
-      <c r="J7" s="763"/>
-      <c r="K7" s="764"/>
+      <c r="G7" s="748"/>
+      <c r="H7" s="748"/>
+      <c r="I7" s="748"/>
+      <c r="J7" s="748"/>
+      <c r="K7" s="749"/>
     </row>
     <row r="8" spans="2:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="219">
@@ -23549,27 +23549,27 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="756" t="s">
+      <c r="B9" s="750" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="750">
+      <c r="C9" s="753">
         <v>70000000</v>
       </c>
-      <c r="D9" s="750">
-        <v>0</v>
-      </c>
-      <c r="E9" s="750">
+      <c r="D9" s="753">
+        <v>0</v>
+      </c>
+      <c r="E9" s="753">
         <f>5636730+11273460+5636730+5636730+5636730+5636730+5636730+5636730+11373460</f>
         <v>62104030</v>
       </c>
-      <c r="F9" s="759">
+      <c r="F9" s="756">
         <v>7118970</v>
       </c>
-      <c r="G9" s="750">
+      <c r="G9" s="753">
         <f>E9+F9</f>
         <v>69223000</v>
       </c>
-      <c r="H9" s="750">
+      <c r="H9" s="753">
         <f>C9-G9</f>
         <v>777000</v>
       </c>
@@ -23579,53 +23579,53 @@
       <c r="J9" s="765">
         <v>57</v>
       </c>
-      <c r="K9" s="753" t="s">
+      <c r="K9" s="762" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="757"/>
-      <c r="C10" s="751"/>
-      <c r="D10" s="751"/>
-      <c r="E10" s="751"/>
-      <c r="F10" s="760"/>
-      <c r="G10" s="751"/>
-      <c r="H10" s="751"/>
+      <c r="B10" s="751"/>
+      <c r="C10" s="754"/>
+      <c r="D10" s="754"/>
+      <c r="E10" s="754"/>
+      <c r="F10" s="757"/>
+      <c r="G10" s="754"/>
+      <c r="H10" s="754"/>
       <c r="I10" s="766"/>
       <c r="J10" s="766"/>
-      <c r="K10" s="754"/>
+      <c r="K10" s="763"/>
       <c r="O10" s="10">
         <f>5636730*11</f>
         <v>62004030</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="757"/>
-      <c r="C11" s="751"/>
-      <c r="D11" s="751"/>
-      <c r="E11" s="751"/>
-      <c r="F11" s="760"/>
-      <c r="G11" s="751"/>
-      <c r="H11" s="751"/>
+      <c r="B11" s="751"/>
+      <c r="C11" s="754"/>
+      <c r="D11" s="754"/>
+      <c r="E11" s="754"/>
+      <c r="F11" s="757"/>
+      <c r="G11" s="754"/>
+      <c r="H11" s="754"/>
       <c r="I11" s="766"/>
       <c r="J11" s="766"/>
-      <c r="K11" s="754"/>
+      <c r="K11" s="763"/>
       <c r="O11" s="10">
         <f>O10+7118970</f>
         <v>69123000</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="758"/>
-      <c r="C12" s="752"/>
-      <c r="D12" s="752"/>
-      <c r="E12" s="752"/>
-      <c r="F12" s="761"/>
-      <c r="G12" s="752"/>
-      <c r="H12" s="752"/>
+      <c r="B12" s="752"/>
+      <c r="C12" s="755"/>
+      <c r="D12" s="755"/>
+      <c r="E12" s="755"/>
+      <c r="F12" s="758"/>
+      <c r="G12" s="755"/>
+      <c r="H12" s="755"/>
       <c r="I12" s="767"/>
       <c r="J12" s="767"/>
-      <c r="K12" s="755"/>
+      <c r="K12" s="764"/>
     </row>
     <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
@@ -23776,11 +23776,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -23797,6 +23792,11 @@
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="I9:I12"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="2.04" right="0.26" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="95" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -23871,7 +23871,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="762" t="s">
+      <c r="B9" s="747" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="771" t="s">
@@ -23886,7 +23886,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="762"/>
+      <c r="B10" s="747"/>
       <c r="C10" s="516" t="s">
         <v>538</v>
       </c>
@@ -23905,7 +23905,7 @@
       <c r="H10" s="769"/>
     </row>
     <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="762"/>
+      <c r="B11" s="747"/>
       <c r="C11" s="517" t="s">
         <v>319</v>
       </c>
@@ -34793,13 +34793,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:K51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="J52:J54"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="M8:M9"/>
@@ -34810,6 +34803,13 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="C4:M4"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:K51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="J52:J54"/>
   </mergeCells>
   <pageMargins left="1.86" right="0.19685039370078741" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="95" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -35755,7 +35755,7 @@
   </sheetPr>
   <dimension ref="C2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -38120,31 +38120,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="N9:N11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="L9:L11"/>
@@ -38159,6 +38134,31 @@
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
   </mergeCells>
   <pageMargins left="1.74" right="0.26" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -40660,76 +40660,76 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B3" s="705" t="s">
+      <c r="B3" s="717" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="705"/>
-      <c r="D3" s="705"/>
-      <c r="E3" s="705"/>
-      <c r="F3" s="705"/>
-      <c r="G3" s="705"/>
-      <c r="H3" s="705"/>
-      <c r="I3" s="705"/>
-      <c r="J3" s="705"/>
-      <c r="K3" s="705"/>
-      <c r="L3" s="705"/>
-      <c r="M3" s="705"/>
-      <c r="N3" s="705"/>
-      <c r="O3" s="705"/>
-      <c r="P3" s="705"/>
-      <c r="Q3" s="705"/>
-      <c r="R3" s="705"/>
-      <c r="S3" s="705"/>
-      <c r="T3" s="705"/>
-      <c r="U3" s="705"/>
+      <c r="C3" s="717"/>
+      <c r="D3" s="717"/>
+      <c r="E3" s="717"/>
+      <c r="F3" s="717"/>
+      <c r="G3" s="717"/>
+      <c r="H3" s="717"/>
+      <c r="I3" s="717"/>
+      <c r="J3" s="717"/>
+      <c r="K3" s="717"/>
+      <c r="L3" s="717"/>
+      <c r="M3" s="717"/>
+      <c r="N3" s="717"/>
+      <c r="O3" s="717"/>
+      <c r="P3" s="717"/>
+      <c r="Q3" s="717"/>
+      <c r="R3" s="717"/>
+      <c r="S3" s="717"/>
+      <c r="T3" s="717"/>
+      <c r="U3" s="717"/>
     </row>
     <row r="4" spans="2:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B4" s="705" t="s">
+      <c r="B4" s="717" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="705"/>
-      <c r="D4" s="705"/>
-      <c r="E4" s="705"/>
-      <c r="F4" s="705"/>
-      <c r="G4" s="705"/>
-      <c r="H4" s="705"/>
-      <c r="I4" s="705"/>
-      <c r="J4" s="705"/>
-      <c r="K4" s="705"/>
-      <c r="L4" s="705"/>
-      <c r="M4" s="705"/>
-      <c r="N4" s="705"/>
-      <c r="O4" s="705"/>
-      <c r="P4" s="705"/>
-      <c r="Q4" s="705"/>
-      <c r="R4" s="705"/>
-      <c r="S4" s="705"/>
-      <c r="T4" s="705"/>
-      <c r="U4" s="705"/>
+      <c r="C4" s="717"/>
+      <c r="D4" s="717"/>
+      <c r="E4" s="717"/>
+      <c r="F4" s="717"/>
+      <c r="G4" s="717"/>
+      <c r="H4" s="717"/>
+      <c r="I4" s="717"/>
+      <c r="J4" s="717"/>
+      <c r="K4" s="717"/>
+      <c r="L4" s="717"/>
+      <c r="M4" s="717"/>
+      <c r="N4" s="717"/>
+      <c r="O4" s="717"/>
+      <c r="P4" s="717"/>
+      <c r="Q4" s="717"/>
+      <c r="R4" s="717"/>
+      <c r="S4" s="717"/>
+      <c r="T4" s="717"/>
+      <c r="U4" s="717"/>
     </row>
     <row r="5" spans="2:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B5" s="705" t="s">
+      <c r="B5" s="717" t="s">
         <v>628</v>
       </c>
-      <c r="C5" s="705"/>
-      <c r="D5" s="705"/>
-      <c r="E5" s="705"/>
-      <c r="F5" s="705"/>
-      <c r="G5" s="705"/>
-      <c r="H5" s="705"/>
-      <c r="I5" s="705"/>
-      <c r="J5" s="705"/>
-      <c r="K5" s="705"/>
-      <c r="L5" s="705"/>
-      <c r="M5" s="705"/>
-      <c r="N5" s="705"/>
-      <c r="O5" s="705"/>
-      <c r="P5" s="705"/>
-      <c r="Q5" s="705"/>
-      <c r="R5" s="705"/>
-      <c r="S5" s="705"/>
-      <c r="T5" s="705"/>
-      <c r="U5" s="705"/>
+      <c r="C5" s="717"/>
+      <c r="D5" s="717"/>
+      <c r="E5" s="717"/>
+      <c r="F5" s="717"/>
+      <c r="G5" s="717"/>
+      <c r="H5" s="717"/>
+      <c r="I5" s="717"/>
+      <c r="J5" s="717"/>
+      <c r="K5" s="717"/>
+      <c r="L5" s="717"/>
+      <c r="M5" s="717"/>
+      <c r="N5" s="717"/>
+      <c r="O5" s="717"/>
+      <c r="P5" s="717"/>
+      <c r="Q5" s="717"/>
+      <c r="R5" s="717"/>
+      <c r="S5" s="717"/>
+      <c r="T5" s="717"/>
+      <c r="U5" s="717"/>
     </row>
     <row r="6" spans="2:21" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B6" s="401"/>
@@ -40778,119 +40778,119 @@
       <c r="U7" s="8"/>
     </row>
     <row r="8" spans="2:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="708" t="s">
+      <c r="B8" s="718" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="710" t="s">
+      <c r="C8" s="720" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="711"/>
-      <c r="E8" s="711"/>
-      <c r="F8" s="711"/>
-      <c r="G8" s="711"/>
-      <c r="H8" s="712"/>
+      <c r="D8" s="721"/>
+      <c r="E8" s="721"/>
+      <c r="F8" s="721"/>
+      <c r="G8" s="721"/>
+      <c r="H8" s="722"/>
       <c r="I8" s="186"/>
-      <c r="J8" s="711" t="s">
+      <c r="J8" s="721" t="s">
         <v>451</v>
       </c>
-      <c r="K8" s="711"/>
-      <c r="L8" s="712"/>
+      <c r="K8" s="721"/>
+      <c r="L8" s="722"/>
       <c r="M8" s="187"/>
-      <c r="N8" s="710" t="s">
+      <c r="N8" s="720" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="711"/>
-      <c r="P8" s="712"/>
+      <c r="O8" s="721"/>
+      <c r="P8" s="722"/>
       <c r="Q8" s="187"/>
-      <c r="R8" s="713" t="s">
+      <c r="R8" s="723" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="714"/>
-      <c r="T8" s="714"/>
-      <c r="U8" s="715"/>
+      <c r="S8" s="724"/>
+      <c r="T8" s="724"/>
+      <c r="U8" s="725"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="709"/>
-      <c r="C9" s="718" t="s">
+      <c r="B9" s="719"/>
+      <c r="C9" s="705" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="719"/>
-      <c r="E9" s="718" t="s">
+      <c r="D9" s="706"/>
+      <c r="E9" s="705" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="719"/>
-      <c r="G9" s="718" t="s">
+      <c r="F9" s="706"/>
+      <c r="G9" s="705" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="719"/>
-      <c r="I9" s="725" t="s">
+      <c r="H9" s="706"/>
+      <c r="I9" s="711" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="722" t="s">
+      <c r="J9" s="714" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="722" t="s">
+      <c r="K9" s="714" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="722" t="s">
+      <c r="L9" s="714" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="725" t="s">
+      <c r="M9" s="711" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="722" t="s">
+      <c r="N9" s="714" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="722" t="s">
+      <c r="O9" s="714" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="722" t="s">
+      <c r="P9" s="714" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="725" t="s">
+      <c r="Q9" s="711" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="716" t="s">
+      <c r="R9" s="726" t="s">
         <v>70</v>
       </c>
-      <c r="S9" s="717"/>
-      <c r="T9" s="716" t="s">
+      <c r="S9" s="727"/>
+      <c r="T9" s="726" t="s">
         <v>71</v>
       </c>
-      <c r="U9" s="717"/>
+      <c r="U9" s="727"/>
     </row>
     <row r="10" spans="2:21" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="709"/>
-      <c r="C10" s="720"/>
-      <c r="D10" s="721"/>
-      <c r="E10" s="720"/>
-      <c r="F10" s="721"/>
-      <c r="G10" s="720"/>
-      <c r="H10" s="721"/>
-      <c r="I10" s="726"/>
-      <c r="J10" s="723"/>
-      <c r="K10" s="723"/>
-      <c r="L10" s="723"/>
-      <c r="M10" s="726"/>
-      <c r="N10" s="723"/>
-      <c r="O10" s="723"/>
-      <c r="P10" s="723"/>
-      <c r="Q10" s="726"/>
-      <c r="R10" s="706" t="s">
+      <c r="B10" s="719"/>
+      <c r="C10" s="707"/>
+      <c r="D10" s="708"/>
+      <c r="E10" s="707"/>
+      <c r="F10" s="708"/>
+      <c r="G10" s="707"/>
+      <c r="H10" s="708"/>
+      <c r="I10" s="712"/>
+      <c r="J10" s="715"/>
+      <c r="K10" s="715"/>
+      <c r="L10" s="715"/>
+      <c r="M10" s="712"/>
+      <c r="N10" s="715"/>
+      <c r="O10" s="715"/>
+      <c r="P10" s="715"/>
+      <c r="Q10" s="712"/>
+      <c r="R10" s="709" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="706" t="s">
+      <c r="S10" s="709" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="706" t="s">
+      <c r="T10" s="709" t="s">
         <v>269</v>
       </c>
-      <c r="U10" s="706" t="s">
+      <c r="U10" s="709" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="709"/>
+      <c r="B11" s="719"/>
       <c r="C11" s="188" t="s">
         <v>68</v>
       </c>
@@ -40909,19 +40909,19 @@
       <c r="H11" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="727"/>
-      <c r="J11" s="724"/>
-      <c r="K11" s="724"/>
-      <c r="L11" s="724"/>
-      <c r="M11" s="727"/>
-      <c r="N11" s="724"/>
-      <c r="O11" s="724"/>
-      <c r="P11" s="724"/>
-      <c r="Q11" s="727"/>
-      <c r="R11" s="707"/>
-      <c r="S11" s="707"/>
-      <c r="T11" s="707"/>
-      <c r="U11" s="707"/>
+      <c r="I11" s="713"/>
+      <c r="J11" s="716"/>
+      <c r="K11" s="716"/>
+      <c r="L11" s="716"/>
+      <c r="M11" s="713"/>
+      <c r="N11" s="716"/>
+      <c r="O11" s="716"/>
+      <c r="P11" s="716"/>
+      <c r="Q11" s="713"/>
+      <c r="R11" s="710"/>
+      <c r="S11" s="710"/>
+      <c r="T11" s="710"/>
+      <c r="U11" s="710"/>
     </row>
     <row r="12" spans="2:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="226" t="s">
@@ -41340,16 +41340,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="B3:U3"/>
     <mergeCell ref="B4:U4"/>
     <mergeCell ref="B5:U5"/>
@@ -41366,6 +41356,16 @@
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="K9:K11"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="Q9:Q11"/>
   </mergeCells>
   <pageMargins left="2.25" right="0.38" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -41380,10 +41380,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B2:Q35"/>
+  <dimension ref="B2:Q22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41876,206 +41876,6 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="28" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="169"/>
-      <c r="C28" s="170" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="191"/>
-    </row>
-    <row r="29" spans="2:17" ht="238.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="192" t="s">
-        <v>278</v>
-      </c>
-      <c r="C29" s="193" t="s">
-        <v>279</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>280</v>
-      </c>
-      <c r="E29" s="193" t="s">
-        <v>281</v>
-      </c>
-      <c r="F29" s="193" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" s="194" t="s">
-        <v>283</v>
-      </c>
-      <c r="H29" s="193" t="s">
-        <v>284</v>
-      </c>
-      <c r="I29" s="193" t="s">
-        <v>285</v>
-      </c>
-      <c r="J29" s="193" t="s">
-        <v>286</v>
-      </c>
-      <c r="K29" s="193" t="s">
-        <v>287</v>
-      </c>
-      <c r="L29" s="195" t="s">
-        <v>288</v>
-      </c>
-      <c r="M29" s="193" t="s">
-        <v>289</v>
-      </c>
-      <c r="N29" s="193" t="s">
-        <v>290</v>
-      </c>
-      <c r="O29" s="193" t="s">
-        <v>291</v>
-      </c>
-      <c r="P29" s="192" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="225" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="225" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="225" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="225" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="225" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="225" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="225" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="225" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="225" t="s">
-        <v>152</v>
-      </c>
-      <c r="K30" s="225" t="s">
-        <v>153</v>
-      </c>
-      <c r="L30" s="225" t="s">
-        <v>154</v>
-      </c>
-      <c r="M30" s="225" t="s">
-        <v>155</v>
-      </c>
-      <c r="N30" s="225" t="s">
-        <v>172</v>
-      </c>
-      <c r="O30" s="225" t="s">
-        <v>173</v>
-      </c>
-      <c r="P30" s="225" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="93"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="93"/>
-    </row>
-    <row r="33" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="296"/>
-    </row>
-    <row r="34" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="93"/>
-    </row>
-    <row r="35" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="94"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:P2"/>
